--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,108 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
-        <v>43190</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="J7" s="2">
+        <v>43373</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F8" s="3">
         <v>26700</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,20 +782,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>24200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +836,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F12" s="3">
         <v>55300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>95200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>42900</v>
       </c>
-      <c r="G12" s="3">
-        <v>140100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>33800</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>51200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>31100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +902,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-19300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +988,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>92500</v>
+      </c>
+      <c r="F17" s="3">
         <v>81700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>133100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>63800</v>
       </c>
-      <c r="G17" s="3">
-        <v>164300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>41800</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>46300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>41500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-55000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-133100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-41500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,52 +1073,60 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-7100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-58200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-139900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1067,66 +1139,84 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1200</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-60700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-143800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-69400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-169500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-42400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-42100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-60700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-143800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-69400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-169500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-42400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-42100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-60000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-127100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-61200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-144000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-31400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1489,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>7100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-60000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-127100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-61200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-144000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-31400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-60000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-127100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-61200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-144000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-31400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
-        <v>43190</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="J38" s="2">
+        <v>43373</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,26 +1703,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>363800</v>
+      </c>
+      <c r="F41" s="3">
         <v>414000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>293800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>373000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,20 +1734,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>182200</v>
+      </c>
+      <c r="F42" s="3">
         <v>122100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1769,14 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1804,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,26 +1839,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F45" s="3">
         <v>22100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,26 +1874,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>925000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>568600</v>
+      </c>
+      <c r="F46" s="3">
         <v>558200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>306700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>382500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,26 +1909,32 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F47" s="3">
         <v>76800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>12500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1736,26 +1944,32 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,8 +1979,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,26 +2084,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>9500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,26 +2154,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>989800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>631700</v>
+      </c>
+      <c r="F54" s="3">
         <v>640500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>325500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>401400</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,26 +2223,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>16100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>12300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,8 +2254,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,26 +2289,32 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F59" s="3">
         <v>29600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>22600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>23100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,26 +2324,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F60" s="3">
         <v>39900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>38700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>35500</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,26 +2359,32 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>461300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>91800</v>
+      </c>
+      <c r="F61" s="3">
         <v>75000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>75000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>54900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2110,26 +2394,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,26 +2534,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>609100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>223200</v>
+      </c>
+      <c r="F66" s="3">
         <v>180800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>162600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>149200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2335,17 +2669,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>479000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>479000</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,26 +2724,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-531900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-440000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-366600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-319500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-230300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,26 +2864,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>380700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>408500</v>
+      </c>
+      <c r="F76" s="3">
         <v>459800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-316100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-226900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
-        <v>43190</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="J80" s="2">
+        <v>43373</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-60000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-127100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-61200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-144000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-31400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,25 +3028,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2663,8 +3059,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,26 +3234,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-50000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-127400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-59100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-136600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-18000</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +3269,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,25 +3288,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-4500</v>
       </c>
       <c r="E91" s="3">
-        <v>-500</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3">
         <v>-400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2200</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2879,8 +3319,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,26 +3389,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-197300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-15200</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3424,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,26 +3579,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>439200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>42900</v>
+      </c>
+      <c r="F100" s="3">
         <v>367500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-11600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
-        <v>501500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>15700</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3124,8 +3614,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,26 +3649,32 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>393300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="F102" s="3">
         <v>120200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-142000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-63200</v>
       </c>
-      <c r="G102" s="3">
-        <v>343900</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-17400</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,6 +3682,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,91 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
         <v>13800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26700</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -753,8 +757,11 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,12 +771,12 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,8 +795,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,12 +809,12 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>24200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +851,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E12" s="3">
         <v>68200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>57500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>55300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>95200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>42900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>51200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,34 +925,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2000</v>
       </c>
       <c r="H14" s="3">
         <v>2000</v>
       </c>
       <c r="I14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="3">
         <v>-19300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -943,8 +963,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E17" s="3">
         <v>102500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>92500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>133100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>46300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>-78700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-55000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-133100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-46300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,43 +1108,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,15 +1158,15 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-58200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-139900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,34 +1182,37 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1200</v>
       </c>
       <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>1200</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1180,43 +1220,49 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-104100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-84200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-60700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-143800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-69400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-49200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-42100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-104100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-84200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-60700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-143800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-69400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-49200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-42100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-91900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-73500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-60000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-127100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-61200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,78 +1562,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-91900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-73500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-60000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-127100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-61200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-91900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-73500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-60000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-127100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-61200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,29 +1791,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>540900</v>
+      </c>
+      <c r="E41" s="3">
         <v>757000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>363800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>414000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>293800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>373000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,23 +1827,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E42" s="3">
         <v>148100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>182200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>122100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,8 +1865,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,29 +1941,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E45" s="3">
         <v>19800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,29 +1979,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>861900</v>
+      </c>
+      <c r="E46" s="3">
         <v>925000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>568600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>558200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>306700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>382500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,29 +2017,32 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>23200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>31100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>76800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,28 +2055,31 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1900</v>
       </c>
       <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>1900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,29 +2207,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E52" s="3">
         <v>17000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,29 +2283,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>905200</v>
+      </c>
+      <c r="E54" s="3">
         <v>989800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>631700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>640500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>325500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>401400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,29 +2355,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E57" s="3">
         <v>13100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,29 +2429,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E59" s="3">
         <v>51800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,29 +2467,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E60" s="3">
         <v>64900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,29 +2505,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>466600</v>
+      </c>
+      <c r="E61" s="3">
         <v>461300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>91800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>75000</v>
       </c>
       <c r="G61" s="3">
         <v>75000</v>
       </c>
       <c r="H61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="I61" s="3">
         <v>54900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2400,29 +2543,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E62" s="3">
         <v>11500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,29 +2695,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>639500</v>
+      </c>
+      <c r="E66" s="3">
         <v>609100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>223200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>180800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>162600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>149200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2675,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>479000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,29 +2901,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-652900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-531900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-440000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-366600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-319500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-230300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,29 +3053,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>265800</v>
+      </c>
+      <c r="E76" s="3">
         <v>380700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>408500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>459800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-316100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-226900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-91900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-73500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-60000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-127100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-61200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,18 +3240,18 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,29 +3454,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-83900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-76200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-50000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-127400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-59100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,29 +3510,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,29 +3622,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E94" s="3">
         <v>38000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-197300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,29 +3828,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>439200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>42900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>367500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3620,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,29 +3904,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-216100</v>
+      </c>
+      <c r="E102" s="3">
         <v>393300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>120200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-142000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-63200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,98 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>8100</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
         <v>13800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26700</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -760,8 +764,11 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,12 +781,12 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,12 +822,12 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <v>24200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E12" s="3">
         <v>86600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>68200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>57500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>55300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>95200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>42900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>51200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,26 +959,26 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2000</v>
       </c>
       <c r="I14" s="3">
         <v>2000</v>
       </c>
       <c r="J14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-19300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -966,8 +986,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E17" s="3">
         <v>124600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>102500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>133100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-120000</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-78700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-55000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-133100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-46300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,46 +1142,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>700</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1161,15 +1198,15 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-58200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-139900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,37 +1222,40 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E22" s="3">
         <v>10800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>1200</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1223,46 +1263,52 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-130200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-136200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-104100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-84200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-60700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-143800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-69400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-49200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-130200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-136200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-104100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-84200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-60700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-143800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-69400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-49200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-121000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-91900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-73500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-60000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-127100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-61200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-700</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-121000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-91900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-73500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-60000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-127100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-61200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-121000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-91900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-73500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-60000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-127100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-61200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,32 +1878,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E41" s="3">
         <v>540900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>757000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>363800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>414000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>293800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>373000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,26 +1917,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>343700</v>
+      </c>
+      <c r="E42" s="3">
         <v>300000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>148100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>182200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>122100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,31 +1958,34 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,32 +2040,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E45" s="3">
         <v>21000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,32 +2081,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>745400</v>
+      </c>
+      <c r="E46" s="3">
         <v>861900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>925000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>568600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>558200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>306700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>382500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,32 +2122,35 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>23200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>31100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>76800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,31 +2163,34 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E48" s="3">
         <v>26000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1900</v>
       </c>
       <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>1900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,32 +2327,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E52" s="3">
         <v>17300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,32 +2409,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>787700</v>
+      </c>
+      <c r="E54" s="3">
         <v>905200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>989800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>631700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>640500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>325500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>401400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,32 +2486,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E57" s="3">
         <v>12800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,32 +2566,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E59" s="3">
         <v>79800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,32 +2607,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E60" s="3">
         <v>92600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,32 +2648,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>471900</v>
+      </c>
+      <c r="E61" s="3">
         <v>466600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>461300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>91800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>75000</v>
       </c>
       <c r="H61" s="3">
         <v>75000</v>
       </c>
       <c r="I61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="J61" s="3">
         <v>54900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2546,32 +2689,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E62" s="3">
         <v>18500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,32 +2853,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>623900</v>
+      </c>
+      <c r="E66" s="3">
         <v>639500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>609100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>223200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>180800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>162600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>149200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2846,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>479000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,32 +3075,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-768800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-652900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-531900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-440000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-366600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-319500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-230300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,32 +3239,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E76" s="3">
         <v>265800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>380700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>408500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>459800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-316100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-226900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-121000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-91900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-73500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-60000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-127100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-61200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3243,18 +3442,18 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,32 +3671,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-131700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-87800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-83900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-76200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-50000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-127400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-59100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,32 +3731,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,32 +3852,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-129000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>38000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-197300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,32 +4074,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>439200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>42900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>367500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,32 +4156,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-216100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>393300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>120200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-142000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-63200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>8100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
         <v>13800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26700</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -767,8 +770,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,12 +790,12 @@
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,12 +834,12 @@
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
         <v>24200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +878,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E12" s="3">
         <v>92100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>86600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>68200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>57500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>55300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>95200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>42900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>51200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,26 +981,26 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2000</v>
       </c>
       <c r="J14" s="3">
         <v>2000</v>
       </c>
       <c r="K14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L14" s="3">
         <v>-19300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -989,8 +1008,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1069,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E17" s="3">
         <v>128100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>124600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>102500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>92500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>133100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-127500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-120000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>-78700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-55000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-133100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-46300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-41500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,49 +1175,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1201,15 +1237,15 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-58200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-139900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,40 +1261,43 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E22" s="3">
         <v>10900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1200</v>
       </c>
       <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>1200</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1266,49 +1305,55 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-130200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-136200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-104100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-84200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-60700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-143800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-69400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-49200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-42100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1437,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-130200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-136200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-104100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-84200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-60700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-143800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-69400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-49200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-42100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-115900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-121000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-91900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-73500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-60000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-127100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-61200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1701,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-115900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-121000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-91900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-73500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-60000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-127100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-61200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1833,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-115900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-121000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-91900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-73500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-60000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-127100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-61200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,35 +1964,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>356100</v>
+      </c>
+      <c r="E41" s="3">
         <v>367000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>540900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>757000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>363800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>414000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>293800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>373000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,29 +2006,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E42" s="3">
         <v>343700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>300000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>148100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>182200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>122100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,17 +2050,20 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>8000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,8 +2079,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2002,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,35 +2138,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E45" s="3">
         <v>26700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,35 +2182,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>642800</v>
+      </c>
+      <c r="E46" s="3">
         <v>745400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>861900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>925000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>568600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>558200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>306700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>382500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2136,24 +2240,24 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>23200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>31100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>76800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,34 +2270,37 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E48" s="3">
         <v>25800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1900</v>
       </c>
       <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>1900</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,35 +2446,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E52" s="3">
         <v>16500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,35 +2534,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>703600</v>
+      </c>
+      <c r="E54" s="3">
         <v>787700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>905200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>989800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>631700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>640500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>325500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>401400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,35 +2616,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>9800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,31 +2658,34 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2569,35 +2702,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E59" s="3">
         <v>65900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>79800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,35 +2746,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E60" s="3">
         <v>75700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>92600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>60400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,35 +2790,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>475900</v>
+      </c>
+      <c r="E61" s="3">
         <v>471900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>466600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>461300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>91800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>75000</v>
       </c>
       <c r="I61" s="3">
         <v>75000</v>
       </c>
       <c r="J61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K61" s="3">
         <v>54900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2692,35 +2834,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E62" s="3">
         <v>21700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,35 +3010,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>645700</v>
+      </c>
+      <c r="E66" s="3">
         <v>623900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>639500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>609100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>223200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>180800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>162600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>149200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3017,13 +3184,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>479000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,35 +3248,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-888800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-768800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-652900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-531900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-440000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-366600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-319500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-230300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,35 +3424,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E76" s="3">
         <v>163800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>265800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>380700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>408500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>459800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-316100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-226900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3512,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-115900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-121000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-91900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-73500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-60000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-127100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-61200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,18 +3643,18 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,35 +3887,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-131700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-87800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-83900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-76200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-50000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-127400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-59100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,35 +3951,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,35 +4081,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-129000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>38000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-197300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,35 +4319,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>439200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>42900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>367500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,35 +4407,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-174000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-216100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>393300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>120200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-142000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-63200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
         <v>13800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26700</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -773,8 +777,11 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,12 +800,12 @@
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,12 +847,12 @@
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
         <v>24200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,52 +892,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E12" s="3">
         <v>90200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>92100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>86600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>68200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>57500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>55300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>95200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>42900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,26 +1004,26 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2000</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
       </c>
       <c r="L14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M14" s="3">
         <v>-19300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1096,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E17" s="3">
         <v>127600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>128100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>124600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>102500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>92500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>81700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>133100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-167500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-127500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-120000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-78700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-55000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-133100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-46300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-41500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,52 +1209,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1240,15 +1277,15 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-58200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-139900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,43 +1301,46 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E22" s="3">
         <v>11000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1200</v>
       </c>
       <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>1200</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1308,52 +1348,58 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-171100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-135000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-130200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-136200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-104100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-84200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-60700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-143800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-69400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-49200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-42100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1489,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-171100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-135000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-130200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-136200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-104100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-84200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-60700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-143800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-69400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-49200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-42100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-163100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-120000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-115900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-121000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-91900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-73500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-60000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-127100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-61200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,96 +1771,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-163100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-120000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-115900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-121000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-91900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-73500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-60000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-127100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-61200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1912,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-163100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-120000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-115900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-121000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-91900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-73500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-60000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-127100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-61200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,38 +2051,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>471200</v>
+      </c>
+      <c r="E41" s="3">
         <v>356100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>367000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>540900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>757000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>363800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>414000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>293800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>373000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,32 +2096,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>447900</v>
+      </c>
+      <c r="E42" s="3">
         <v>251000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>343700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>300000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>148100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>182200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>122100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,20 +2143,23 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>8000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,8 +2175,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,38 +2237,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E45" s="3">
         <v>35700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,38 +2284,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>945100</v>
+      </c>
+      <c r="E46" s="3">
         <v>642800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>745400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>861900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>925000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>568600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>558200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>306700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>382500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,13 +2331,16 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>82200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -2243,24 +2348,24 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>23200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>31100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>76800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,37 +2378,40 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E48" s="3">
         <v>36800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1900</v>
       </c>
       <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>1900</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,38 +2566,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E52" s="3">
         <v>23900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,38 +2660,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1093300</v>
+      </c>
+      <c r="E54" s="3">
         <v>703600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>787700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>905200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>989800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>631700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>640500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>325500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>401400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,38 +2747,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,16 +2792,19 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2687,8 +2821,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2705,38 +2839,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85200</v>
+        <v>80500</v>
       </c>
       <c r="E59" s="3">
+        <v>85100</v>
+      </c>
+      <c r="F59" s="3">
         <v>65900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>79800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,38 +2886,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E60" s="3">
         <v>95600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>92600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>60400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,38 +2933,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>475900</v>
+        <v>1362700</v>
       </c>
       <c r="E61" s="3">
+        <v>477400</v>
+      </c>
+      <c r="F61" s="3">
         <v>471900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>466600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>461300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>91800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>75000</v>
       </c>
       <c r="J61" s="3">
         <v>75000</v>
       </c>
       <c r="K61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="L61" s="3">
         <v>54900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2837,38 +2980,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="E62" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F62" s="3">
         <v>21700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,38 +3168,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1488600</v>
+      </c>
+      <c r="E66" s="3">
         <v>645700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>623900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>639500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>609100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>223200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>162600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>149200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3187,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>479000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,38 +3422,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1037500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-888800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-768800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-652900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-531900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-440000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-366600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-319500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-230300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,38 +3610,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-395300</v>
+      </c>
+      <c r="E76" s="3">
         <v>57900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>163800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>265800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>380700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>408500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>459800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-316100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-226900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3704,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-163100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-120000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-115900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-121000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-91900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-73500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-60000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-127100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-61200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,18 +3845,18 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,38 +4104,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-150800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-96300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-131700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-87800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-83900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-76200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-50000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-127400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-59100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,38 +4172,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,38 +4311,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-282100</v>
+      </c>
+      <c r="E94" s="3">
         <v>83000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-129000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>38000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-197300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,38 +4565,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>547900</v>
+      </c>
+      <c r="E100" s="3">
         <v>4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>439200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>42900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>367500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,38 +4659,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-174000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-216100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>393300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>120200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-142000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,118 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
         <v>13800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26700</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -780,13 +784,16 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -803,12 +810,12 @@
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,13 +834,16 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>53900</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -850,12 +860,12 @@
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
         <v>24200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E12" s="3">
         <v>122600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>90200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>92100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>86600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>68200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>57500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>55300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>95200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>51200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,26 +1027,26 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2000</v>
       </c>
       <c r="L14" s="3">
         <v>2000</v>
       </c>
       <c r="M14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N14" s="3">
         <v>-19300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E17" s="3">
         <v>168000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>128100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>124600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>102500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>92500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>81700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>133100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-167500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-127500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-120000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-78700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-55000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-133100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-46300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-41500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,55 +1243,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>6100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1280,15 +1317,15 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-58200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-139900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,46 +1341,49 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E22" s="3">
         <v>9700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1200</v>
       </c>
       <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>1200</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1351,55 +1391,61 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-171100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-135000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-130200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-136200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-104100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-84200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-60700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-143800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-69400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-49200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-42100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-171100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-135000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-130200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-136200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-104100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-84200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-60700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-143800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-69400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-49200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-42100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-163100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-120000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-115900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-121000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-91900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-73500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-60000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-127100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-61200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,102 +1841,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-163100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-120000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-115900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-121000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-91900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-73500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-60000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-127100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-61200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-163100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-120000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-115900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-121000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-91900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-73500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-60000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-127100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-61200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,41 +2138,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>378400</v>
+      </c>
+      <c r="E41" s="3">
         <v>471200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>356100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>367000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>540900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>757000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>363800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>414000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>293800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>373000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,35 +2186,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>459200</v>
+      </c>
+      <c r="E42" s="3">
         <v>447900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>251000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>343700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>300000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>148100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>182200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>122100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2146,23 +2236,26 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>8000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2178,8 +2271,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,41 +2336,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E45" s="3">
         <v>25500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,41 +2386,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>909900</v>
+      </c>
+      <c r="E46" s="3">
         <v>945100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>642800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>745400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>861900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>925000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>568600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>558200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>306700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>382500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,41 +2436,44 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E47" s="3">
         <v>82200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>23200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>31100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>76800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,40 +2486,43 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E48" s="3">
         <v>35800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1900</v>
       </c>
       <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>1900</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,41 +2686,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E52" s="3">
         <v>30200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,41 +2786,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1081500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1093300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>703600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>787700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>905200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>989800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>631700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>640500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>325500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>401400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,41 +2878,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,20 +2926,23 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,8 +2958,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2842,41 +2976,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E59" s="3">
         <v>80500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>85100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>79800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,41 +3026,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E60" s="3">
         <v>94700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>60400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,41 +3076,44 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1375300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1362700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>477400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>471900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>466600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>461300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>91800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>75000</v>
       </c>
       <c r="K61" s="3">
         <v>75000</v>
       </c>
       <c r="L61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="M61" s="3">
         <v>54900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2983,41 +3126,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E62" s="3">
         <v>24000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,41 +3326,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1545800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1488600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>645700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>623900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>639500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>609100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>223200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>180800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>162600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>149200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3358,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>479000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,41 +3596,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1133900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-888800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-768800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-652900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-531900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-440000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-366600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-319500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-230300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,41 +3796,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-464300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-395300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>57900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>163800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>265800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>380700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>408500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>459800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-316100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-226900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-163100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-120000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-115900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-121000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-91900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-73500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-60000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-127100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-61200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,18 +4047,18 @@
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,41 +4321,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-150800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-96300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-131700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-87800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-83900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-76200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-50000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-127400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-59100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,41 +4393,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,41 +4541,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-282100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>83000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-129000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>38000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-197300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,41 +4811,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>547900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>439200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>42900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>367500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,41 +4911,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="E102" s="3">
         <v>115100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-174000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-216100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>393300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>120200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-142000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-63200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,125 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>54000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
         <v>13800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26700</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
@@ -787,17 +791,20 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,12 +820,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,17 +844,20 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>53900</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,12 +873,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
         <v>24200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E12" s="3">
         <v>102000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>122600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>90200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>92100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>86600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>68200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>57500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>55300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>95200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>42900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>51200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,26 +1050,26 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2000</v>
       </c>
       <c r="M14" s="3">
         <v>2000</v>
       </c>
       <c r="N14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O14" s="3">
         <v>-19300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E17" s="3">
         <v>148000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>168000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>128100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>124600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>102500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>92500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>81700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>133100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-149500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-94000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-167500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-127500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-120000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-78700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-55000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-133100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-46300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-41500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,63 +1277,67 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-149700</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1320,15 +1357,15 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-58200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-139900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,49 +1381,52 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E22" s="3">
         <v>10800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1200</v>
       </c>
       <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>1200</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1394,58 +1434,64 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-102100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-171100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-135000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-130200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-136200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-104100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-84200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-60700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-143800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-69400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-49200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-42100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-102100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-171100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-135000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-130200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-136200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-104100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-84200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-60700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-143800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-69400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-49200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-42100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-155900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-96300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-163100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-120000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-115900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-121000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-91900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-73500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-60000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-127100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-61200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-155900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-96300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-163100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-120000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-115900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-121000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-91900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-73500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-60000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-127100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-61200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-155900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-96300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-163100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-120000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-115900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-121000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-91900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-73500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-60000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-127100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-61200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,44 +2225,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E41" s="3">
         <v>378400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>471200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>356100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>367000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>540900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>757000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>363800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>414000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>293800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>373000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,38 +2276,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>419300</v>
+      </c>
+      <c r="E42" s="3">
         <v>459200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>447900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>251000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>343700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>300000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>148100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>182200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>122100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,26 +2329,29 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>10200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>8000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2274,8 +2367,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,44 +2435,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E45" s="3">
         <v>62000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,44 +2488,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>639700</v>
+      </c>
+      <c r="E46" s="3">
         <v>909900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>945100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>642800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>745400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>861900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>925000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>568600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>558200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>306700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>382500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,44 +2541,47 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E47" s="3">
         <v>79600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>82200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>23200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>76800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,43 +2594,46 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E48" s="3">
         <v>42200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1900</v>
       </c>
       <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>1900</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2539,31 +2647,34 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>46200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,44 +2806,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E52" s="3">
         <v>49800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,44 +2912,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>781500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1081500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1093300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>703600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>787700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>905200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>989800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>631700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>640500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>325500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>401400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,44 +3009,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E57" s="3">
         <v>22300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2938,14 +3072,14 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>3800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,8 +3095,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2979,44 +3113,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E59" s="3">
         <v>109300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>80500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>85100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>79800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,44 +3166,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E60" s="3">
         <v>131900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>95600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>60400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,44 +3219,47 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1376600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1375300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1362700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>477400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>471900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>466600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>461300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>91800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>75000</v>
       </c>
       <c r="L61" s="3">
         <v>75000</v>
       </c>
       <c r="M61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="N61" s="3">
         <v>54900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3129,44 +3272,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E62" s="3">
         <v>29900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,44 +3484,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1524900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1545800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1488600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>645700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>623900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>639500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>609100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>223200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>180800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>162600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>149200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>479000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,44 +3770,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1289800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1133900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-888800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-768800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-652900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-531900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-440000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-366600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-319500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-230300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,44 +3982,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-743400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-464300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-395300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>163800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>265800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>380700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>408500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>459800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-316100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-226900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-155900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-96300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-163100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-120000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-115900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-121000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-91900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-73500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-60000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-127100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-61200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,13 +4222,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>300</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -4050,18 +4249,18 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,44 +4538,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-91700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-150800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-96300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-131700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-87800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-83900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-76200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-50000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-127400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-59100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,44 +4614,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,44 +4771,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-282100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>83000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-129000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>38000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-197300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,44 +5057,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-135500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>547900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>439200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>42900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>367500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,44 +5163,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-92600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>115100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-174000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-216100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>393300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>120200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-142000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-63200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,131 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
         <v>13800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26700</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
@@ -794,20 +797,23 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,12 +829,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,20 +853,23 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>53900</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,12 +885,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
         <v>24200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +933,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>122200</v>
+      </c>
+      <c r="E12" s="3">
         <v>104300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>102000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>122600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>90200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>92100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>86600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>68200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>57500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>55300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>95200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>42900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>51200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>31100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,26 +1072,26 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
-      </c>
-      <c r="M14" s="3">
-        <v>2000</v>
       </c>
       <c r="N14" s="3">
         <v>2000</v>
       </c>
       <c r="O14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P14" s="3">
         <v>-19300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1080,8 +1099,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E17" s="3">
         <v>151800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>148000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>168000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>128100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>124600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>102500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>92500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>81700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>133100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-149500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-94000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-167500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-127500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-120000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-78700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-55000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-133100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-46300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,70 +1310,74 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-149700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1360,15 +1396,15 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-58200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-139900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,52 +1420,55 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E22" s="3">
         <v>11100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1200</v>
       </c>
       <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>1200</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1437,61 +1476,67 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-152300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-161000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-102100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-171100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-135000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-130200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-136200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-104100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-84200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-60700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-143800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-69400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-49200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-152300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-161000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-102100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-171100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-135000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-130200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-136200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-104100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-84200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-60700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-143800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-69400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-49200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-155900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-96300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-163100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-120000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-115900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-121000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-91900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-73500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-60000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-127100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-61200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1980,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-155900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-96300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-163100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-120000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-115900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-121000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-91900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-73500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-60000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-127100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-61200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-155900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-96300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-163100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-120000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-115900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-121000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-91900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-73500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-60000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-127100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-61200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,47 +2311,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>393800</v>
+      </c>
+      <c r="E41" s="3">
         <v>180300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>378400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>471200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>356100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>367000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>540900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>757000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>363800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>414000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>293800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>373000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,41 +2365,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>442900</v>
+      </c>
+      <c r="E42" s="3">
         <v>419300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>459200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>447900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>251000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>343700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>300000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>148100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>182200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>122100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,29 +2421,32 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>8000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2462,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2385,8 +2477,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,47 +2533,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E45" s="3">
         <v>39600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>62000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,47 +2589,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>888900</v>
+      </c>
+      <c r="E46" s="3">
         <v>639700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>909900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>945100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>642800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>745400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>861900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>925000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>568600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>558200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>306700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>382500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,47 +2645,50 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>17700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>79600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>82200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>23200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>76800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,46 +2701,49 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E48" s="3">
         <v>44800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>42200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1900</v>
       </c>
       <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>1900</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2650,17 +2757,20 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E49" s="3">
         <v>46200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2676,8 +2786,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2703,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,47 +2925,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E52" s="3">
         <v>33100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>49800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,47 +3037,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1012800</v>
+      </c>
+      <c r="E54" s="3">
         <v>781500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1081500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1093300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>703600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>787700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>905200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>989800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>631700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>640500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>325500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>401400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,47 +3139,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E57" s="3">
         <v>12000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3193,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,14 +3208,14 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>3800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3231,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3116,47 +3249,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E59" s="3">
         <v>83500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>109300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>80500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>85100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>79800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,47 +3305,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E60" s="3">
         <v>95800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>131900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>95600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>92600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,47 +3361,50 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1705100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1376600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1375300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1362700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>477400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>471900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>466600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>461300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>91800</v>
-      </c>
-      <c r="L61" s="3">
-        <v>75000</v>
       </c>
       <c r="M61" s="3">
         <v>75000</v>
       </c>
       <c r="N61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="O61" s="3">
         <v>54900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3275,47 +3417,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E62" s="3">
         <v>44900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,47 +3641,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1883200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1524900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1545800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1488600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>645700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>623900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>639500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>609100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>223200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>180800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>162600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>149200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3700,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>479000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3720,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,47 +3943,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1437000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1289800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1133900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-888800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-768800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-652900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-531900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-440000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-366600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-319500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-230300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,47 +4167,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-870400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-743400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-464300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-395300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>163800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>265800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>380700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>408500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>459800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-316100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-226900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-155900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-96300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-163100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-120000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-115900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-121000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-91900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-73500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-60000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-127100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-61200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,17 +4420,18 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4252,18 +4450,18 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4276,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,47 +4754,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-121600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-91700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-150800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-96300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-131700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-87800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-83900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-76200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-50000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-127400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-59100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,47 +4834,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,47 +5000,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E94" s="3">
         <v>59000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-282100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>83000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-45100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-129000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>38000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-197300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,47 +5302,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>325400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-135500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>547900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>439200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>42900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>367500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,47 +5414,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>213300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-198000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-92600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>115100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-174000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-216100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>393300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-50200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>120200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-142000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-63200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,138 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>12900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
         <v>13800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26700</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
@@ -800,23 +804,26 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -832,12 +839,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,23 +863,26 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>11300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>53900</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,12 +898,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
         <v>24200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E12" s="3">
         <v>122200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>104300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>102000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>122600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>90200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>92100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>86600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>68200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>57500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>55300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>95200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>42900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>51200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>31100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,13 +1063,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>21500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1075,26 +1095,26 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2000</v>
       </c>
       <c r="O14" s="3">
         <v>2000</v>
       </c>
       <c r="P14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E17" s="3">
         <v>178500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>151800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>148000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>168000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>128100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>124600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>102500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>92500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>81700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>133100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>46300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-173700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-165600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-149500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-94000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-167500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-127500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-120000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-78700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-55000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-133100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-46300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-41500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,76 +1344,80 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>28500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-179100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-135600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-149700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1399,15 +1436,15 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-58200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-139900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,55 +1460,58 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E22" s="3">
         <v>15100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1200</v>
       </c>
       <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>1200</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1479,64 +1519,70 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-201300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-152300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-161000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-102100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-171100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-135000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-130200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-136200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-104100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-84200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-60700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-143800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-69400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-49200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-42100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-201300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-152300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-161000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-102100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-171100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-135000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-130200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-136200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-104100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-84200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-60700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-143800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-69400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-49200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-42100</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-196400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-147200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-155900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-96300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-163100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-120000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-115900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-121000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-91900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-73500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-60000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-127100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-61200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-28500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-196400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-147200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-155900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-96300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-163100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-120000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-115900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-121000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-91900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-73500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-60000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-127100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-61200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-196400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-147200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-155900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-96300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-163100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-120000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-115900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-121000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-91900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-73500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-60000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-127100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-61200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,50 +2398,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>371600</v>
+      </c>
+      <c r="E41" s="3">
         <v>393800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>180300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>378400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>471200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>356100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>367000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>540900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>757000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>363800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>414000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>293800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>373000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,44 +2455,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>299700</v>
+      </c>
+      <c r="E42" s="3">
         <v>442900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>419300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>459200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>447900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>251000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>343700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>300000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>148100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>182200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>122100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,32 +2514,35 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>8000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2465,8 +2558,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,50 +2632,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E45" s="3">
         <v>52200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>62000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>35700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,50 +2691,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>716200</v>
+      </c>
+      <c r="E46" s="3">
         <v>888900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>639700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>909900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>945100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>642800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>745400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>861900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>925000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>568600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>558200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>306700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>382500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,50 +2750,53 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>17700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>79600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>82200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>23200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>76800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,49 +2809,52 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E48" s="3">
         <v>46000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>42200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1900</v>
       </c>
       <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>1900</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2760,20 +2868,23 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E49" s="3">
         <v>44900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2789,8 +2900,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,50 +3045,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E52" s="3">
         <v>33000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>49800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,50 +3163,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>813100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1012800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>781500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1081500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1093300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>703600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>787700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>905200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>989800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>631700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>640500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>325500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>401400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,50 +3270,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E57" s="3">
         <v>11900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,13 +3327,16 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>300</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
@@ -3211,14 +3345,14 @@
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>3800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3234,8 +3368,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3252,50 +3386,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E59" s="3">
         <v>122900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>83500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>109300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>80500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>85100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>79800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,50 +3445,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E60" s="3">
         <v>135100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>131900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>94700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>95600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>92600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,50 +3504,53 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1708100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1705100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1376600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1375300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1362700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>477400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>471900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>466600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>461300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>91800</v>
-      </c>
-      <c r="M61" s="3">
-        <v>75000</v>
       </c>
       <c r="N61" s="3">
         <v>75000</v>
       </c>
       <c r="O61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="P61" s="3">
         <v>54900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3420,50 +3563,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E62" s="3">
         <v>38300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>44900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,50 +3799,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1854100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1883200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1524900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1545800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1488600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>645700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>623900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>639500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>609100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>223200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>162600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>149200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3870,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>479000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,50 +4117,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1633400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1437000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1289800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1133900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-888800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-768800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-652900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-531900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-440000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-366600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-319500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-230300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,50 +4353,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1041000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-870400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-743400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-464300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-395300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>163800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>265800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>380700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>408500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>459800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-316100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-226900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-196400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-147200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-155900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-96300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-163100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-120000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-115900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-121000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-91900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-73500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-60000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-127100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-61200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,20 +4619,21 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,18 +4652,18 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,50 +4971,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-160600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-133900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-121600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-91700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-150800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-96300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-131700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-87800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-83900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-76200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-50000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-127400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-59100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,50 +5055,51 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,50 +5230,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E94" s="3">
         <v>21800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>59000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-282100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>83000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-45100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-129000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>38000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-197300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,50 +5548,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>325400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-135500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>547900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>439200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>42900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>367500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5607,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,50 +5666,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E102" s="3">
         <v>213300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-198000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-92600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>115100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-174000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-216100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>393300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-50200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-142000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-63200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,145 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>54000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
         <v>13800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26700</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
@@ -807,26 +811,29 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -842,12 +849,12 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,26 +873,29 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>53900</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,12 +911,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
         <v>24200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E12" s="3">
         <v>107600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>122200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>104300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>102000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>122600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>90200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>92100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>86600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>68200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>57500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>55300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>95200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>42900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>51200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>31100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,17 +1083,20 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E14" s="3">
         <v>21500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1098,26 +1118,26 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2000</v>
       </c>
       <c r="P14" s="3">
         <v>2000</v>
       </c>
       <c r="Q14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R14" s="3">
         <v>-19300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E17" s="3">
         <v>175400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>178500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>151800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>148000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>168000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>128100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>124600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>102500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>92500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>81700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>133100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>46300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>41500</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-173700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-165600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-149500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-94000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-167500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-127500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-120000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-78700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-55000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-133100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-46300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-41500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,82 +1378,86 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>28500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-179100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-135600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-149700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1439,15 +1476,15 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-58200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-139900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +1500,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1472,49 +1512,49 @@
         <v>20300</v>
       </c>
       <c r="E22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F22" s="3">
         <v>15100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1200</v>
       </c>
       <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>1200</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1522,67 +1562,73 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-201300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-152300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-161000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-102100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-171100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-135000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-130200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-136200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-104100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-84200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-60700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-143800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-49200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-42100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-201300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-152300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-161000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-102100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-171100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-135000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-130200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-136200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-104100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-84200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-60700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-143800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-49200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-42100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-196400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-147200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-155900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-96300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-163100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-120000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-115900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-121000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-91900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-73500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-60000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-127100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-97900</v>
+      </c>
+      <c r="E32" s="3">
         <v>7300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-28500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-196400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-147200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-155900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-96300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-163100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-120000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-115900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-121000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-91900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-73500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-60000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-127100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-31400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-196400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-147200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-155900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-96300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-163100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-120000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-115900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-121000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-91900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-73500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-60000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-127100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-31400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,53 +2485,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>470100</v>
+      </c>
+      <c r="E41" s="3">
         <v>371600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>393800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>180300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>378400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>471200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>356100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>367000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>540900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>757000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>363800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>414000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>293800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>373000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,47 +2545,50 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>245600</v>
+      </c>
+      <c r="E42" s="3">
         <v>299700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>442900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>419300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>459200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>447900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>251000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>343700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>300000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>148100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>182200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>122100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,8 +2607,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,24 +2621,24 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>8000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2561,8 +2654,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,53 +2731,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E45" s="3">
         <v>45000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>52200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>62000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,53 +2793,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>771300</v>
+      </c>
+      <c r="E46" s="3">
         <v>716200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>888900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>639700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>909900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>945100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>642800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>745400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>861900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>925000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>568600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>558200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>306700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>382500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,42 +2869,42 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>17700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>79600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>82200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>23200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>76800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,52 +2917,55 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E48" s="3">
         <v>31100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>46000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>42200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1900</v>
       </c>
       <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>1900</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2871,23 +2979,26 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E49" s="3">
         <v>30500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>46200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3014,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,53 +3165,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E52" s="3">
         <v>35300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>49800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,53 +3289,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>862200</v>
+      </c>
+      <c r="E54" s="3">
         <v>813100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1012800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>781500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1081500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1093300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>703600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>787700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>905200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>989800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>631700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>640500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>325500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>401400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,53 +3401,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E57" s="3">
         <v>10100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,16 +3461,19 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>300</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -3348,14 +3482,14 @@
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3505,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3389,53 +3523,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E59" s="3">
         <v>93400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>122900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>109300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>80500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>85100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,53 +3585,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E60" s="3">
         <v>103500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>135100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>95800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>131900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>94700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>95600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,53 +3647,56 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1693200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1708100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1705100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1376600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1375300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1362700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>477400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>471900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>466600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>461300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>91800</v>
-      </c>
-      <c r="N61" s="3">
-        <v>75000</v>
       </c>
       <c r="O61" s="3">
         <v>75000</v>
       </c>
       <c r="P61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>54900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3566,53 +3709,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E62" s="3">
         <v>42300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>44900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,53 +3957,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1887800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1854100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1883200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1524900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1545800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1488600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>645700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>623900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>639500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>609100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>223200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>180800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>162600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>149200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4041,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>479000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,53 +4291,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1643200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1633400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1437000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1289800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1133900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-888800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-768800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-652900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-531900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-440000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-366600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-319500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-230300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,53 +4539,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1025500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1041000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-870400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-743400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-464300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-395300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>57900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>163800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>265800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>380700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>408500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>459800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-316100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-226900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-196400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-147200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-155900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-96300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-163100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-120000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-115900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-121000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-91900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-73500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-60000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-127100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-31400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,23 +4818,24 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4655,18 +4854,18 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,53 +5188,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-160600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-133900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-121600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-91700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-150800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-96300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-131700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-87800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-83900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-76200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-50000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-127400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-59100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,53 +5276,54 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,53 +5460,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>149700</v>
+      </c>
+      <c r="E94" s="3">
         <v>138600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>21800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>59000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-282100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>83000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-45100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-129000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>38000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-197300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,53 +5794,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>325400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-135500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>547900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>439200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>42900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>367500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5610,8 +5856,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,53 +5918,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>213300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-198000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-92600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>115100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-174000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-216100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>393300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-50200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>120200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-142000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-63200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,152 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>73700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>54000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
         <v>13800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26700</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
@@ -814,8 +818,11 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,20 +830,20 @@
         <v>700</v>
       </c>
       <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -852,12 +859,12 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,29 +883,32 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E10" s="3">
         <v>73000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>53900</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,12 +924,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
         <v>24200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E12" s="3">
         <v>108400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>107600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>122200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>104300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>102000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>122600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>90200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>92100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>86600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>68200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>57500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>55300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>95200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>42900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>51200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>31100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,20 +1103,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,26 +1141,26 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2000</v>
       </c>
       <c r="Q14" s="3">
         <v>2000</v>
       </c>
       <c r="R14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S14" s="3">
         <v>-19300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E17" s="3">
         <v>153900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>175400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>178500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>151800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>148000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>168000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>128100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>124600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>102500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>92500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>81700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>133100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>46300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>41500</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-80200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-173700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-165600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-149500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-94000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-167500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-127500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-120000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-78700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-55000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-133100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-46300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-41500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,88 +1412,92 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E20" s="3">
         <v>97900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>28500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-118700</v>
+      </c>
+      <c r="E21" s="3">
         <v>19300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-179100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-135600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-149700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,15 +1516,15 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-58200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-139900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,61 +1540,64 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20300</v>
+        <v>19800</v>
       </c>
       <c r="E22" s="3">
         <v>20300</v>
       </c>
       <c r="F22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G22" s="3">
         <v>15100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1200</v>
       </c>
       <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>1200</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1565,70 +1605,76 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-201300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-152300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-161000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-102100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-171100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-135000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-130200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-136200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-104100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-84200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-60700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-143800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-69400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-49200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-42100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-201300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-152300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-161000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-102100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-171100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-135000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-130200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-136200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-104100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-84200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-60700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-143800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-69400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-49200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-42100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-196400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-147200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-155900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-96300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-163100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-120000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-115900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-121000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-91900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-73500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-60000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-127100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-61200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-31400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-97900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-28500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-196400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-147200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-155900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-96300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-163100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-120000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-115900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-121000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-91900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-73500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-60000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-127100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-61200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-31400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-196400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-147200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-155900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-96300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-163100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-120000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-115900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-121000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-91900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-73500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-60000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-127100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-61200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-31400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,56 +2572,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>483200</v>
+      </c>
+      <c r="E41" s="3">
         <v>470100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>371600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>393800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>180300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>378400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>471200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>356100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>367000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>540900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>757000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>363800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>414000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>293800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>373000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,50 +2635,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E42" s="3">
         <v>245600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>299700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>442900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>419300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>459200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>447900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>251000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>343700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>300000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>148100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>182200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>122100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,8 +2700,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2624,24 +2717,24 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>8000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2657,8 +2750,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2672,8 +2765,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,56 +2830,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E45" s="3">
         <v>55600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>52200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>62000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,56 +2895,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>642200</v>
+      </c>
+      <c r="E46" s="3">
         <v>771300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>716200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>888900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>639700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>909900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>945100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>642800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>745400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>861900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>925000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>568600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>558200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>306700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>382500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,8 +2960,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2872,42 +2977,42 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>17700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>79600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>82200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>23200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>76800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,55 +3025,58 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E48" s="3">
         <v>29700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>42200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1900</v>
       </c>
       <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>1900</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -2982,26 +3090,29 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E49" s="3">
         <v>29900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,8 +3128,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,56 +3285,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E52" s="3">
         <v>31300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>35300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>49800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,56 +3415,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>728700</v>
+      </c>
+      <c r="E54" s="3">
         <v>862200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>813100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1012800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>781500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1081500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1093300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>703600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>787700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>905200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>989800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>631700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>640500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>325500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>401400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,56 +3532,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>8800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,8 +3595,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,8 +3609,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>300</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -3485,14 +3619,14 @@
         <v>300</v>
       </c>
       <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,8 +3642,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3526,56 +3660,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E59" s="3">
         <v>132400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>122900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>109300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>80500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>85100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,56 +3725,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E60" s="3">
         <v>141200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>103500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>135100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>95800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>131900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>94700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>60400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,56 +3790,59 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1698700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1693200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1708100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1705100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1376600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1375300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1362700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>477400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>471900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>466600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>461300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>91800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>75000</v>
       </c>
       <c r="P61" s="3">
         <v>75000</v>
       </c>
       <c r="Q61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="R61" s="3">
         <v>54900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3712,56 +3855,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E62" s="3">
         <v>42900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>38300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>44900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,56 +4115,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1867200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1887800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1854100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1883200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1524900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1545800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1488600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>645700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>623900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>639500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>609100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>223200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>180800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>162600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>149200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4212,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>479000</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,56 +4465,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1780600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1643200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1633400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1437000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1289800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1133900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-888800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-768800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-652900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-531900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-440000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-366600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-319500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-230300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,56 +4725,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1138400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1025500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1041000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-870400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-743400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-464300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-395300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>57900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>163800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>265800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>380700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>408500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>459800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-316100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-226900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-196400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-147200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-155900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-96300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-163100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-120000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-115900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-121000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-91900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-73500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-60000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-127100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-61200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-31400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4828,17 +5027,17 @@
         <v>1600</v>
       </c>
       <c r="E83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4857,18 +5056,18 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,56 +5405,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-160600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-133900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-121600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-91700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-150800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-96300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-131700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-87800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-83900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-76200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-50000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-127400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-59100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5253,8 +5470,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,56 +5497,57 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,56 +5690,59 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E94" s="3">
         <v>149700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>138600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>21800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>59000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-282100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>83000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-129000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>38000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-197300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5525,8 +5755,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,56 +6040,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>325400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-135500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>547900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>439200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>42900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>367500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5859,8 +6105,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,56 +6170,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E102" s="3">
         <v>98500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>213300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-198000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-92600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>115100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-174000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-216100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>393300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-50200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>120200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-142000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-63200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5981,6 +6233,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,158 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>54000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
         <v>13800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26700</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
@@ -821,32 +824,35 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
         <v>700</v>
       </c>
       <c r="F9" s="3">
+        <v>700</v>
+      </c>
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,12 +868,12 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,32 +892,35 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>-400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>73000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>53900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -927,12 +936,12 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
         <v>24200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -951,8 +960,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,73 +988,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E12" s="3">
         <v>92500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>108400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>107600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>122200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>104300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>102000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>122600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>90200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>92100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>86600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>68200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>57500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>55300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>95200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>42900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>51200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>31100</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,22 +1122,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8400</v>
       </c>
-      <c r="F14" s="3">
-        <v>21500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>22700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1144,26 +1163,26 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2000</v>
       </c>
       <c r="R14" s="3">
         <v>2000</v>
       </c>
       <c r="S14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T14" s="3">
         <v>-19300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
@@ -1171,8 +1190,11 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,73 +1283,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E17" s="3">
         <v>129500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>153900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>175400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>178500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>151800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>148000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>168000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>128100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>124600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>102500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>92500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>81700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>133100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>63800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>46300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>41500</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1332,64 +1361,67 @@
         <v>-129200</v>
       </c>
       <c r="E18" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-80200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-173700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-165600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-149500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-94000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-167500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-127500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-120000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-78700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-133100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-46300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-41500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,94 +1445,98 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E20" s="3">
         <v>8800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>97900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>28500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-118700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-179100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-135600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-149700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1519,15 +1555,15 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-139900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1543,64 +1579,67 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="3">
         <v>19800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>20300</v>
       </c>
       <c r="F22" s="3">
         <v>20300</v>
       </c>
       <c r="G22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="H22" s="3">
         <v>15100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1200</v>
       </c>
       <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3">
+        <v>1200</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1608,73 +1647,79 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-140200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-201300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-152300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-161000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-102100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-171100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-135000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-130200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-136200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-104100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-84200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-60700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-143800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-69400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-49200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-42100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,8 +1783,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-140200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-201300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-152300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-161000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-102100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-171100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-135000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-130200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-136200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-104100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-84200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-60700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-143800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-69400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-49200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-42100</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-137300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-196400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-147200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-155900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-96300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-163100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-120000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-115900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-121000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-91900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-73500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-127100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-61200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-31400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2259,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-97900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-28500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-137300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-196400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-147200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-155900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-96300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-163100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-120000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-115900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-121000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-91900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-73500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-127100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-61200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-31400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-137300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-196400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-147200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-155900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-96300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-163100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-120000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-115900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-121000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-91900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-73500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-127100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-61200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-31400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,59 +2658,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>376700</v>
+      </c>
+      <c r="E41" s="3">
         <v>483200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>470100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>371600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>393800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>180300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>378400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>471200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>356100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>367000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>540900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>757000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>363800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>414000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>293800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>373000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,53 +2724,56 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E42" s="3">
         <v>108700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>245600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>299700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>442900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>419300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>459200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>447900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>251000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>343700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>300000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>148100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>182200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>122100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2792,11 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2720,24 +2812,24 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
         <v>8000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2845,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2768,8 +2860,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,59 +2928,62 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E45" s="3">
         <v>50200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>52200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9400</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,59 +2996,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>548900</v>
+      </c>
+      <c r="E46" s="3">
         <v>642200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>771300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>716200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>888900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>639700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>909900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>945100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>642800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>745400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>861900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>925000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>568600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>558200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>306700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>382500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3064,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2980,42 +3084,42 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>17700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>79600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>82200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>23200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>76800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,58 +3132,61 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E48" s="3">
         <v>27300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>42200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1900</v>
       </c>
       <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>1900</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3093,29 +3200,32 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E49" s="3">
         <v>29300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3131,8 +3241,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3158,8 +3268,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,59 +3404,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E52" s="3">
         <v>29900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>49800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3472,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,59 +3540,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E54" s="3">
         <v>728700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>862200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>813100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1012800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>781500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1081500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1093300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>703600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>787700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>905200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>989800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>631700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>640500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>325500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>401400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3608,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,59 +3662,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3728,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3612,8 +3745,8 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>300</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -3622,14 +3755,14 @@
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3645,8 +3778,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3663,59 +3796,62 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E59" s="3">
         <v>109000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>132400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>93400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>122900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>109300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>80500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>85100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,59 +3864,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E60" s="3">
         <v>119200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>141200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>103500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>135100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>95800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>131900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>94700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>95600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>75700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>60400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,59 +3932,62 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1707600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1698700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1693200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1708100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1705100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1376600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1375300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1362700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>477400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>471900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>466600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>461300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>91800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>75000</v>
       </c>
       <c r="Q61" s="3">
         <v>75000</v>
       </c>
       <c r="R61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="S61" s="3">
         <v>54900</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3858,59 +4000,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E62" s="3">
         <v>41200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>42900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>38300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>44900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4068,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,59 +4272,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1877700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1867200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1887800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1854100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1883200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1524900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1545800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1488600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>645700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>623900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>639500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>609100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>223200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>180800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>162600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>149200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4340,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4383,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>479000</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,59 +4638,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1918100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1780600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1643200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1633400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1437000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1289800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1133900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-888800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-768800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-652900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-531900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-440000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-366600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-319500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-230300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4706,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,59 +4910,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1254600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1138400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1025500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1041000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-870400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-743400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-464300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-395300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>163800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>265800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>380700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>408500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>459800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-316100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-226900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4978,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-137300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-196400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-147200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-155900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-96300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-163100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-120000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-115900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-121000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-91900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-73500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-127100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-61200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-31400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,29 +5215,30 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E83" s="3">
         <v>1600</v>
       </c>
       <c r="F83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,18 +5257,18 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5083,8 +5281,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,59 +5621,62 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-93200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-135200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-160600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-133900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-121600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-91700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-150800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-96300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-131700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-87800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-83900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-76200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-127400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-59100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,8 +5689,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,8 +5717,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5507,50 +5727,50 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5563,8 +5783,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,59 +5919,62 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E94" s="3">
         <v>146900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>149700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>138600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>21800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>59000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-282100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>83000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-129000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>38000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-197300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5758,8 +5987,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,59 +6285,62 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>325400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-135500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>547900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>439200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>42900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>367500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6108,8 +6353,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,59 +6421,62 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E102" s="3">
         <v>13100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>98500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>213300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-198000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-92600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>115100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-174000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-216100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>393300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-50200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>120200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-142000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-63200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6236,6 +6487,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,165 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>54000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
         <v>13800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26700</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
@@ -827,35 +831,38 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>700</v>
       </c>
       <c r="F9" s="3">
         <v>700</v>
       </c>
       <c r="G9" s="3">
+        <v>700</v>
+      </c>
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -871,12 +878,12 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -895,35 +902,38 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>73000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>53900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,12 +949,12 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
         <v>24200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E12" s="3">
         <v>90900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>92500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>108400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>107600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>122200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>104300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>102000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>122600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>90200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>92100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>86600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>68200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>57500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>55300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>95200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>42900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>51200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>31100</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,26 +1142,29 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>7700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1166,26 +1186,26 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
-      </c>
-      <c r="R14" s="3">
-        <v>2000</v>
       </c>
       <c r="S14" s="3">
         <v>2000</v>
       </c>
       <c r="T14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U14" s="3">
         <v>-19300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
@@ -1193,8 +1213,11 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E17" s="3">
         <v>131100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>153900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>175400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>178500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>151800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>148000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>168000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>128100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>124600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>102500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>92500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>81700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>133100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>63800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>46300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>41500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-129200</v>
+        <v>-126200</v>
       </c>
       <c r="E18" s="3">
         <v>-129200</v>
       </c>
       <c r="F18" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-80200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-173700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-165600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-149500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-94000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-167500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-127500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-120000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-78700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-55000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-133100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
         <v>-46300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-41500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,100 +1479,104 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>8600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>97900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>28500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-118900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-118700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-179100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-135600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-149700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,15 +1595,15 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-58200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-139900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,67 +1619,70 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E22" s="3">
         <v>20000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>20300</v>
       </c>
       <c r="G22" s="3">
         <v>20300</v>
       </c>
       <c r="H22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I22" s="3">
         <v>15100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1200</v>
       </c>
       <c r="U22" s="3">
         <v>1200</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="V22" s="3">
+        <v>1200</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1650,76 +1690,82 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-142700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-140600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-140200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-201300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-152300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-161000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-102100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-171100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-135000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-130200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-136200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-104100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-84200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-60700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-143800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-69400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-49200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-42100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1786,8 +1832,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-142700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-140600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-140200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-201300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-152300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-161000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-102100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-171100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-135000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-130200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-136200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-104100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-84200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-60700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-143800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-69400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-49200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-42100</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-137600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-137300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-196400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-147200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-155900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-96300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-163100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-120000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-115900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-121000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-91900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-73500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-60000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-127100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-61200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-31400</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-97900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-28500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
         <v>1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-137600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-137300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-196400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-147200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-155900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-96300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-163100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-120000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-115900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-121000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-91900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-73500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-60000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-127100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-61200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-31400</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-137600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-137300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-196400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-147200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-155900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-96300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-163100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-120000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-115900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-121000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-91900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-73500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-60000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-127100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-61200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-31400</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,62 +2745,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>407400</v>
+      </c>
+      <c r="E41" s="3">
         <v>376700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>483200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>470100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>371600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>393800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>180300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>378400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>471200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>356100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>367000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>540900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>757000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>363800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>414000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>293800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>373000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,56 +2814,59 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E42" s="3">
         <v>95200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>108700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>245600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>299700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>442900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>419300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>459200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>447900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>251000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>343700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>300000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>148100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>182200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>122100</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2885,11 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2815,24 +2908,24 @@
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
         <v>8000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2848,8 +2941,8 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2863,8 +2956,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2931,62 +3027,65 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E45" s="3">
         <v>76900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>52200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,62 +3098,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>552700</v>
+      </c>
+      <c r="E46" s="3">
         <v>548900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>642200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>771300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>716200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>888900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>639700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>909900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>945100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>642800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>745400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>861900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>925000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>568600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>558200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>306700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>382500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3169,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3087,42 +3192,42 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>17700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>79600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>82200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>23200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>76800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3135,61 +3240,64 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E48" s="3">
         <v>25200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>42200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1900</v>
       </c>
       <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+      <c r="T48" s="3">
+        <v>1900</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -3203,32 +3311,35 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E49" s="3">
         <v>28700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3244,8 +3355,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3271,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,62 +3524,65 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E52" s="3">
         <v>20200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>31300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,62 +3666,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>625700</v>
+      </c>
+      <c r="E54" s="3">
         <v>623000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>728700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>862200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>813100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1012800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>781500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1081500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1093300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>703600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>787700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>905200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>989800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>631700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>640500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>325500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>401400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,62 +3793,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>11600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3731,8 +3862,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,8 +3882,8 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>300</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3758,14 +3892,14 @@
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3781,8 +3915,8 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3799,62 +3933,65 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E59" s="3">
         <v>109900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>109000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>132400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>93400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>122900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>83500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>109300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>85100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>79800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,62 +4004,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E60" s="3">
         <v>121400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>119200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>141200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>103500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>95800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>131900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>94700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>95600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>75700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>92600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>60400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>39900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,62 +4075,65 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1713300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1707600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1698700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1693200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1708100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1705100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1376600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1375300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1362700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>477400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>471900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>466600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>461300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>91800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>75000</v>
       </c>
       <c r="R61" s="3">
         <v>75000</v>
       </c>
       <c r="S61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="T61" s="3">
         <v>54900</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4003,62 +4146,65 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E62" s="3">
         <v>38900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>42900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,62 +4430,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1851300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1877700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1867200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1887800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1854100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1883200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1524900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1545800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1488600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>645700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>623900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>639500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>609100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>223200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>180800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>162600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>149200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4343,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4553,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>479000</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,62 +4812,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2057500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1918100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1780600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1643200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1633400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1437000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1289800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1133900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-888800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-768800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-652900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-531900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-440000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-366600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-319500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-230300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,62 +5096,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1225700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1254600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1138400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1025500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1041000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-870400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-743400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-464300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-395300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>57900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>163800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>265800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>380700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>408500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>459800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-316100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-226900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4981,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-137600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-137300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-196400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-147200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-155900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-96300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-163100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-120000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-115900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-121000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-91900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-73500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-60000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-127100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-61200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-31400</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,32 +5414,33 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1600</v>
       </c>
       <c r="G83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5260,18 +5459,18 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5284,8 +5483,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,62 +5838,65 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-144300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-93200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-135200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-160600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-133900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-121600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-91700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-150800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-96300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-131700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-87800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-83900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-50000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-127400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-59100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5692,8 +5909,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,8 +5938,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5727,53 +5948,53 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F91" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="G91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5786,8 +6007,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,62 +6149,65 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E94" s="3">
         <v>18000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>146900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>149700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>138600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>21800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>59000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-282100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>83000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-129000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>38000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-197300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5990,8 +6220,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,62 +6531,65 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>150200</v>
+      </c>
+      <c r="E100" s="3">
         <v>6400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>325400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-135500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>547900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>439200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>42900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>367500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6356,8 +6602,11 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6424,62 +6673,65 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-68900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>98500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>213300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-198000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-92600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>115100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-174000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-216100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>393300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>120200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-142000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-63200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6490,6 +6742,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,172 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>73700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
         <v>13800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26700</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
+      <c r="W8" s="3">
+        <v>0</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
@@ -834,38 +838,41 @@
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>700</v>
       </c>
       <c r="G9" s="3">
         <v>700</v>
       </c>
       <c r="H9" s="3">
+        <v>700</v>
+      </c>
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -881,12 +888,12 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
@@ -905,38 +912,41 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>73000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -952,12 +962,12 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3">
         <v>24200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,8 +986,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,79 +1016,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E12" s="3">
         <v>92900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>90900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>92500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>108400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>107600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>122200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>104300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>102000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>122600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>90200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>92100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>86600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>68200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>57500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>55300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>95200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>42900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>51200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>31100</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,29 +1162,32 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1189,26 +1209,26 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2000</v>
       </c>
       <c r="T14" s="3">
         <v>2000</v>
       </c>
       <c r="U14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V14" s="3">
         <v>-19300</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
@@ -1216,8 +1236,11 @@
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E17" s="3">
         <v>128000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>131100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>129500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>153900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>175400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>178500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>151800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>148000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>168000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>128100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>124600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>102500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>92500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>81700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>133100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>63800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>46300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>41500</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-146100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-126200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-129200</v>
       </c>
       <c r="F18" s="3">
         <v>-129200</v>
       </c>
       <c r="G18" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-80200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-173700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-165600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-149500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-94000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-167500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-127500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-120000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-78700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-55000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-133100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
         <v>-46300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-41500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,106 +1513,110 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>97900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>28500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-121000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-118900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-118700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-179100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-135600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-149700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1598,15 +1635,15 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-58200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-139900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1622,70 +1659,73 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E22" s="3">
         <v>20100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20300</v>
       </c>
       <c r="H22" s="3">
         <v>20300</v>
       </c>
       <c r="I22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J22" s="3">
         <v>15100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1700</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1200</v>
       </c>
       <c r="V22" s="3">
         <v>1200</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3">
+        <v>1200</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1693,79 +1733,85 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-160700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-142700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-140600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-140200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-201300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-152300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-161000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-102100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-171100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-135000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-130200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-136200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-104100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-84200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-60700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-143800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-69400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-49200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-42100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1835,8 +1881,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-160700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-142700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-140600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-140200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-201300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-152300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-161000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-102100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-171100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-135000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-130200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-136200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-104100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-84200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-60700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-143800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-69400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-49200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-42100</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-157900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-140200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-137600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-137300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-196400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-147200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-155900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-96300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-163100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-120000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-115900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-121000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-73500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-60000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-127100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-61200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-31400</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-97900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-28500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
         <v>1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-157900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-140200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-137600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-137300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-196400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-147200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-155900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-96300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-163100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-120000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-115900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-121000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-73500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-60000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-127100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-61200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-31400</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-157900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-140200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-137600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-137300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-196400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-147200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-155900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-96300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-163100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-120000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-115900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-121000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-73500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-60000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-127100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-61200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-31400</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,65 +2832,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>302400</v>
+      </c>
+      <c r="E41" s="3">
         <v>407400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>376700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>483200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>470100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>371600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>393800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>180300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>378400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>471200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>356100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>367000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>540900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>757000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>363800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>414000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>293800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>373000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,59 +2904,62 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E42" s="3">
         <v>83900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>95200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>108700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>245600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>299700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>442900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>419300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>459200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>447900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>251000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>343700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>300000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>148100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>182200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>122100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,8 +2978,11 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2911,24 +3004,24 @@
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
         <v>8000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3037,8 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2959,8 +3052,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3030,65 +3126,68 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E45" s="3">
         <v>61400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>76900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>50200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>52200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9400</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,65 +3200,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>432900</v>
+      </c>
+      <c r="E46" s="3">
         <v>552700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>548900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>642200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>771300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>716200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>888900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>639700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>909900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>945100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>642800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>745400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>861900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>925000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>568600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>558200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>306700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>382500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,8 +3274,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3195,42 +3300,42 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>17700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>79600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>23200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>76800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3243,64 +3348,67 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E48" s="3">
         <v>24100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>26000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1900</v>
       </c>
       <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
+      <c r="U48" s="3">
+        <v>1900</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
@@ -3314,35 +3422,38 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E49" s="3">
         <v>28100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>44900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3358,8 +3469,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,65 +3644,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E52" s="3">
         <v>20800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4600</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3718,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,65 +3792,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>503700</v>
+      </c>
+      <c r="E54" s="3">
         <v>625700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>623000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>728700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>862200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>813100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1012800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>781500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1081500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1093300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>703600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>787700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>905200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>989800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>631700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>640500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>325500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>401400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3740,8 +3866,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,65 +3924,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +3996,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3885,8 +4019,8 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>300</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -3895,14 +4029,14 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3918,8 +4052,8 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3936,65 +4070,68 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E59" s="3">
         <v>92500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>109900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>109000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>132400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>93400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>122900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>83500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>109300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>85100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>79800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4007,65 +4144,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E60" s="3">
         <v>96600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>121400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>119200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>141200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>103500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>135100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>131900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>94700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>95600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>75700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>92600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>39900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4078,65 +4218,68 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1718900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1713300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1707600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1698700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1693200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1708100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1705100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1376600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1375300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1362700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>477400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>471900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>466600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>461300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>91800</v>
-      </c>
-      <c r="R61" s="3">
-        <v>75000</v>
       </c>
       <c r="S61" s="3">
         <v>75000</v>
       </c>
       <c r="T61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="U61" s="3">
         <v>54900</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4149,65 +4292,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E62" s="3">
         <v>29400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>42900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4366,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,65 +4588,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1865700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1851300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1877700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1867200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1887800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1854100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1883200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1524900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1545800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1488600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>645700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>623900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>639500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>609100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>223200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>180800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>162600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>149200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4504,8 +4662,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4724,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>479000</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,65 +4986,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2215400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2057500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1918100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1780600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1643200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1633400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1437000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1289800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1133900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-888800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-768800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-652900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-531900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-440000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-366600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-319500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-230300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4886,8 +5060,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,65 +5282,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1362000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1225700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1254600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1138400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1025500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1041000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-870400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-743400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-464300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-395300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>57900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>163800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>265800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>380700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>408500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>459800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-316100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-226900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5170,8 +5356,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-157900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-140200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-137600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-137300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-196400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-147200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-155900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-96300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-163100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-120000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-115900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-121000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-73500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-60000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-127100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-61200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-31400</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,8 +5613,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5424,26 +5623,26 @@
         <v>1600</v>
       </c>
       <c r="E83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F83" s="3">
         <v>1700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1600</v>
       </c>
       <c r="H83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5462,18 +5661,18 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5486,8 +5685,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,65 +6055,68 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-144300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-93200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-135200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-160600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-133900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-121600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-91700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-150800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-96300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-131700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-87800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-83900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-76200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-50000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-127400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-59100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5912,8 +6129,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,65 +6159,66 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-800</v>
       </c>
       <c r="G91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6010,8 +6231,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,65 +6379,68 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>12300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>18000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>146900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>149700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>138600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>21800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>59000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-282100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>83000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-129000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>38000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-197300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6223,8 +6453,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,65 +6777,68 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>150200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>325400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-135500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>547900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>439200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>42900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>367500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-11600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6605,8 +6851,11 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,65 +6925,68 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="E102" s="3">
         <v>18200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-68900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>98500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>213300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-198000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-92600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>115100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-174000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-216100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>393300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-50200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>120200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-142000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-63200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6745,6 +6997,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>BBIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,179 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>73700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>54000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3">
         <v>13800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26700</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
+      <c r="X8" s="3">
+        <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
@@ -841,8 +845,11 @@
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,32 +857,32 @@
         <v>600</v>
       </c>
       <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>700</v>
       </c>
       <c r="H9" s="3">
         <v>700</v>
       </c>
       <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -891,12 +898,12 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3">
         <v>2500</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,41 +922,44 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>53900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,12 +975,12 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3">
         <v>24200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +999,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,82 +1030,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E12" s="3">
         <v>107500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>92900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>90900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>92500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>108400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>107600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>122200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>104300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>102000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>122600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>90200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>92100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>86600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>68200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>57500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>55300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>95200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>42900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>51200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>31100</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,32 +1182,35 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>3500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,26 +1232,26 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
-      </c>
-      <c r="T14" s="3">
-        <v>2000</v>
       </c>
       <c r="U14" s="3">
         <v>2000</v>
       </c>
       <c r="V14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W14" s="3">
         <v>-19300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1259,11 @@
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>161800</v>
+      </c>
+      <c r="E17" s="3">
         <v>147700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>128000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>131100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>129500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>153900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>175400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>178500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>151800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>148000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>168000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>128100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>124600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>102500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>92500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>81700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>133100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>63800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>46300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>41500</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-157700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-146100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-126200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-129200</v>
       </c>
       <c r="G18" s="3">
         <v>-129200</v>
       </c>
       <c r="H18" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-80200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-173700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-165600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-149500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-94000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-167500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-127500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-120000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-78700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-55000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-133100</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3">
         <v>-46300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-41500</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,112 +1547,116 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>97900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>28500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-138500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-121000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-118900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-118700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-179100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-135600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-149700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,15 +1675,15 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-58200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-139900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,73 +1699,76 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E22" s="3">
         <v>20600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>20300</v>
       </c>
       <c r="I22" s="3">
         <v>20300</v>
       </c>
       <c r="J22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K22" s="3">
         <v>15100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>1200</v>
       </c>
       <c r="W22" s="3">
         <v>1200</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
+      <c r="X22" s="3">
+        <v>1200</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
@@ -1736,82 +1776,88 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-179500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-160700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-142700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-140600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-140200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-201300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-152300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-161000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-102100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-171100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-135000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-130200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-136200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-104100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-84200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-60700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-143800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-69400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-49200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-42100</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1884,8 +1930,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-179500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-160700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-142700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-140600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-140200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-201300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-152300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-161000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-102100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-171100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-135000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-130200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-136200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-104100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-84200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-60700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-143800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-69400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-49200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-42100</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-157900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-140200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-137600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-137300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-196400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-147200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-155900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-96300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-163100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-120000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-115900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-91900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-73500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-60000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-127100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-61200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-31400</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-97900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-28500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3">
         <v>1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-157900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-140200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-137600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-137300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-196400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-147200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-155900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-96300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-163100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-120000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-115900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-91900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-73500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-60000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-127100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-61200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-31400</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-157900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-140200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-137600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-137300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-196400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-147200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-155900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-96300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-163100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-120000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-115900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-91900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-73500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-60000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-127100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-61200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-31400</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,68 +2919,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>505200</v>
+      </c>
+      <c r="E41" s="3">
         <v>302400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>407400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>376700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>483200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>470100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>371600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>393800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>180300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>378400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>471200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>356100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>367000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>540900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>757000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>363800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>414000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>293800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>373000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,62 +2994,65 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E42" s="3">
         <v>81400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>83900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>95200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>108700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>245600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>299700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>442900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>419300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>459200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>447900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>251000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>343700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>300000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>148100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>182200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>122100</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,50 +3071,53 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
         <v>8000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3040,8 +3133,8 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3055,8 +3148,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3129,68 +3225,71 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E45" s="3">
         <v>49100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>76900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>50200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>52200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9400</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,68 +3302,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>587700</v>
+      </c>
+      <c r="E46" s="3">
         <v>432900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>552700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>548900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>642200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>771300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>716200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>888900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>639700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>909900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>945100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>642800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>745400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>861900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>925000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>568600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>558200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>306700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>382500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,68 +3379,71 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>17700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>79600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>82200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3">
         <v>23200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>31100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>76800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12500</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3351,67 +3456,70 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E48" s="3">
         <v>22900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>42200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1900</v>
       </c>
       <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+      <c r="V48" s="3">
+        <v>1900</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3425,38 +3533,41 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E49" s="3">
         <v>27500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>44900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3583,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3499,8 +3610,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,68 +3764,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E52" s="3">
         <v>20400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3721,8 +3841,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,68 +3918,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>655000</v>
+      </c>
+      <c r="E54" s="3">
         <v>503700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>625700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>623000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>728700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>862200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>813100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1012800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>781500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1081500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1093300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>703600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>787700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>905200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>989800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>631700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>640500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>325500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>401400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +3995,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,68 +4055,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4130,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4022,8 +4156,8 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
-        <v>300</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -4032,14 +4166,14 @@
         <v>300</v>
       </c>
       <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4055,8 +4189,8 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4073,68 +4207,71 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E59" s="3">
         <v>106200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>92500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>109900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>109000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>132400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>93400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>122900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>109300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>85100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>79800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>29600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4147,68 +4284,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>106100</v>
+      </c>
+      <c r="E60" s="3">
         <v>110100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>96600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>121400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>119200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>141200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>103500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>135100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>95800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>131900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>94700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>95600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>75700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>92600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>64900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>60400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>39900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>38700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,68 +4361,71 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1721100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1718900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1713300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1707600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1698700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1693200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1708100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1705100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1376600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1375300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1362700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>477400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>471900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>466600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>461300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>91800</v>
-      </c>
-      <c r="S61" s="3">
-        <v>75000</v>
       </c>
       <c r="T61" s="3">
         <v>75000</v>
       </c>
       <c r="U61" s="3">
+        <v>75000</v>
+      </c>
+      <c r="V61" s="3">
         <v>54900</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4295,68 +4438,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E62" s="3">
         <v>24200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>38900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>42900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>38300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,8 +4515,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,68 +4746,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1862600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1865700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1851300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1877700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1867200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1887800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1854100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1883200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1524900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1545800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1488600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>645700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>623900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>639500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>609100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>223200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>180800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>162600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>149200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4665,8 +4823,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4895,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>479000</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>479000</v>
       </c>
       <c r="V70" s="3">
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="W70" s="3">
         <v>0</v>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,68 +5160,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2392400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2215400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2057500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1918100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1780600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1643200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1633400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1437000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1289800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1133900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1037500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-888800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-768800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-652900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-531900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-440000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-366600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-319500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-230300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5063,8 +5237,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,68 +5468,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1207500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1362000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1225700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1254600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1138400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1025500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1041000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-870400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-743400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-464300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-395300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>57900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>163800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>265800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>380700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>408500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>459800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-316100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-226900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,8 +5545,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-157900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-140200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-137600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-137300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-196400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-147200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-155900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-96300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-163100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-120000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-115900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-91900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-73500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-60000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-127100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-61200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-31400</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,8 +5812,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5626,26 +5825,26 @@
         <v>1600</v>
       </c>
       <c r="F83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G83" s="3">
         <v>1700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1600</v>
       </c>
       <c r="I83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5664,18 +5863,18 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5688,8 +5887,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,68 +6272,71 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-145200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-113400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-144300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-93200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-135200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-160600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-133900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-121600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-91700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-150800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-96300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-131700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-83900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-76200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-50000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-127400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-59100</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6132,8 +6349,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,8 +6380,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6169,59 +6390,59 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-800</v>
       </c>
       <c r="H91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6234,8 +6455,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,68 +6609,71 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E94" s="3">
         <v>4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>18000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>146900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>149700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>138600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>21800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>59000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-282100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>83000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>38000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-197300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6456,8 +6686,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,68 +7023,71 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>150200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-20800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>325400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-135500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>547900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>439200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>42900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>367500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6854,8 +7100,11 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,68 +7177,71 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-110500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-68900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>98500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>213300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-198000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-92600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>115100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-174000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-216100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>393300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-50200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>120200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-142000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-63200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7000,6 +7252,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
